--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2639.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2639.xlsx
@@ -354,7 +354,7 @@
         <v>1.525263434888744</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.623276080682483</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2639.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2639.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8054551623934727</v>
+        <v>1.200999140739441</v>
       </c>
       <c r="B1">
-        <v>1.525263434888744</v>
+        <v>2.238682746887207</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.56810450553894</v>
       </c>
       <c r="D1">
-        <v>1.623276080682483</v>
+        <v>2.577324867248535</v>
       </c>
       <c r="E1">
-        <v>0.8720672071849845</v>
+        <v>1.198728680610657</v>
       </c>
     </row>
   </sheetData>
